--- a/TestScenario_Assignment3.xlsx
+++ b/TestScenario_Assignment3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="124">
   <si>
     <t>Created By</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Email: notAnEmail</t>
   </si>
   <si>
-    <t>Invalid email toast appears</t>
-  </si>
-  <si>
     <t>TC 203</t>
   </si>
   <si>
@@ -246,18 +243,9 @@
     <t xml:space="preserve">Name: </t>
   </si>
   <si>
-    <t>Address is empty toast appears</t>
-  </si>
-  <si>
-    <t>Email is empty toast appears</t>
-  </si>
-  <si>
     <t>Phone number is empty toast appears</t>
   </si>
   <si>
-    <t>Your name is empty toast appears</t>
-  </si>
-  <si>
     <t>TC 204</t>
   </si>
   <si>
@@ -394,6 +382,15 @@
   </si>
   <si>
     <t>Tested cart, profile, and checkout functionality</t>
+  </si>
+  <si>
+    <t>Checkout fails</t>
+  </si>
+  <si>
+    <t>Checkout successful</t>
+  </si>
+  <si>
+    <t>Please fill form first toast appears</t>
   </si>
 </sst>
 </file>
@@ -469,7 +466,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +477,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -673,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -711,6 +720,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -725,36 +755,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -762,17 +770,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -780,8 +798,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="D91" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1023,23 +1041,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="23"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1093,23 +1111,23 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="21">
+      <c r="G3" s="21"/>
+      <c r="H3" s="26">
         <v>44752</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1163,16 +1181,16 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="34" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1211,12 +1229,12 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="11">
         <v>0</v>
@@ -1274,32 +1292,32 @@
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="2"/>
@@ -1323,28 +1341,28 @@
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29" t="s">
+      <c r="F9" s="32"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="29"/>
+      <c r="I9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="15"/>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1366,22 +1384,22 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="28" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1403,22 +1421,22 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="28" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29" t="s">
+      <c r="F11" s="32"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1440,20 +1458,20 @@
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="28" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="29" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1475,18 +1493,18 @@
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="28" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1508,22 +1526,22 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="28" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="29"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1545,22 +1563,22 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="28" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="4"/>
@@ -1584,26 +1602,26 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="29"/>
+      <c r="I16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="15"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1625,22 +1643,22 @@
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="29"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1662,22 +1680,22 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="28" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1699,20 +1717,20 @@
       <c r="AC18" s="3"/>
     </row>
     <row r="19" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="28" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="29" t="s">
+      <c r="F19" s="33"/>
+      <c r="G19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1734,18 +1752,18 @@
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="28" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1767,22 +1785,22 @@
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="28" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="29"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1804,22 +1822,22 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="28" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="19" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="3"/>
@@ -1843,26 +1861,26 @@
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29" t="s">
+      <c r="F23" s="32"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J23" s="29"/>
+      <c r="I23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="15"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1884,22 +1902,22 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="28" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29" t="s">
+      <c r="F24" s="32"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="29"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1921,22 +1939,22 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="28" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29" t="s">
+      <c r="F25" s="32"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="29"/>
+      <c r="J25" s="15"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1958,20 +1976,20 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="28" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="29" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1993,22 +2011,22 @@
       <c r="AC26" s="3"/>
     </row>
     <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="28" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="29"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2030,22 +2048,22 @@
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="28" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="29"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2067,22 +2085,22 @@
       <c r="AC28" s="3"/>
     </row>
     <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="28" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="19" t="s">
         <v>7</v>
       </c>
       <c r="K29" s="3"/>
@@ -2106,30 +2124,30 @@
       <c r="AC29" s="3"/>
     </row>
     <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29" t="s">
+      <c r="F30" s="40"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="29"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2151,22 +2169,22 @@
       <c r="AC30" s="3"/>
     </row>
     <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="36" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29" t="s">
+      <c r="F31" s="40"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="29"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2188,20 +2206,20 @@
       <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="36" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="29" t="s">
+      <c r="F32" s="40"/>
+      <c r="G32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2223,20 +2241,20 @@
       <c r="AC32" s="3"/>
     </row>
     <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="36" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="29" t="s">
+      <c r="F33" s="40"/>
+      <c r="G33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2258,20 +2276,20 @@
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="36" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="29" t="s">
+      <c r="F34" s="40"/>
+      <c r="G34" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2293,20 +2311,20 @@
       <c r="AC34" s="3"/>
     </row>
     <row r="35" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="36" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2328,22 +2346,22 @@
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="36" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="29" t="s">
+      <c r="F36" s="40"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="29"/>
+      <c r="J36" s="15"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2365,22 +2383,22 @@
       <c r="AC36" s="3"/>
     </row>
     <row r="37" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="36" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29" t="s">
+      <c r="F37" s="40"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="29"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -2402,22 +2420,22 @@
       <c r="AC37" s="3"/>
     </row>
     <row r="38" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="36" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29" t="s">
+      <c r="F38" s="40"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J38" s="29" t="s">
+      <c r="J38" s="19" t="s">
         <v>7</v>
       </c>
       <c r="K38" s="3"/>
@@ -2441,28 +2459,28 @@
       <c r="AC38" s="3"/>
     </row>
     <row r="39" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29" t="s">
+      <c r="F39" s="40"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J39" s="29"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -2484,22 +2502,22 @@
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="36" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29" t="s">
+      <c r="F40" s="40"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="29" t="s">
+      <c r="I40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="29"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -2521,20 +2539,20 @@
       <c r="AC40" s="3"/>
     </row>
     <row r="41" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="36" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="29" t="s">
+      <c r="F41" s="40"/>
+      <c r="G41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -2556,20 +2574,20 @@
       <c r="AC41" s="3"/>
     </row>
     <row r="42" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="36" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="29" t="s">
+      <c r="F42" s="40"/>
+      <c r="G42" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -2591,20 +2609,20 @@
       <c r="AC42" s="3"/>
     </row>
     <row r="43" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="36" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="29" t="s">
+      <c r="F43" s="40"/>
+      <c r="G43" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -2626,20 +2644,20 @@
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="36" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -2661,22 +2679,22 @@
       <c r="AC44" s="3"/>
     </row>
     <row r="45" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="36" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="29" t="s">
+      <c r="F45" s="40"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I45" s="29" t="s">
+      <c r="I45" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J45" s="29"/>
+      <c r="J45" s="15"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -2698,23 +2716,23 @@
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="36" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J46" s="29" t="s">
-        <v>7</v>
+      <c r="F46" s="40"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" s="41" t="s">
+        <v>8</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2737,26 +2755,26 @@
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="36" t="s">
+      <c r="A47" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29" t="s">
+      <c r="F47" s="40"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="29" t="s">
+      <c r="I47" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J47" s="29"/>
+      <c r="J47" s="15"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -2778,22 +2796,22 @@
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="36" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29" t="s">
+      <c r="F48" s="40"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="29" t="s">
+      <c r="I48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J48" s="29"/>
+      <c r="J48" s="15"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -2815,20 +2833,20 @@
       <c r="AC48" s="3"/>
     </row>
     <row r="49" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="36" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="29" t="s">
+      <c r="F49" s="40"/>
+      <c r="G49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -2850,20 +2868,20 @@
       <c r="AC49" s="3"/>
     </row>
     <row r="50" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="36" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="29" t="s">
+      <c r="F50" s="40"/>
+      <c r="G50" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -2885,20 +2903,20 @@
       <c r="AC50" s="3"/>
     </row>
     <row r="51" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="36" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -2920,20 +2938,20 @@
       <c r="AC51" s="3"/>
     </row>
     <row r="52" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="36" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -2955,22 +2973,22 @@
       <c r="AC52" s="3"/>
     </row>
     <row r="53" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="36" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="29" t="s">
+      <c r="F53" s="40"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="29" t="s">
+      <c r="I53" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J53" s="29"/>
+      <c r="J53" s="15"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -2992,22 +3010,24 @@
       <c r="AC53" s="3"/>
     </row>
     <row r="54" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="36" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="37"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="J54" s="29"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -3029,26 +3049,26 @@
       <c r="AC54" s="3"/>
     </row>
     <row r="55" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="36" t="s">
+      <c r="A55" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29" t="s">
+      <c r="F55" s="40"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="29" t="s">
+      <c r="I55" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J55" s="29"/>
+      <c r="J55" s="15"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -3070,22 +3090,22 @@
       <c r="AC55" s="3"/>
     </row>
     <row r="56" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="36" t="s">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="37"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29" t="s">
+      <c r="F56" s="40"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I56" s="29" t="s">
+      <c r="I56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J56" s="29"/>
+      <c r="J56" s="15"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -3107,20 +3127,20 @@
       <c r="AC56" s="3"/>
     </row>
     <row r="57" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="36" t="s">
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="29" t="s">
+      <c r="F57" s="40"/>
+      <c r="G57" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -3142,20 +3162,20 @@
       <c r="AC57" s="3"/>
     </row>
     <row r="58" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="36" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="37"/>
-      <c r="G58" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -3177,20 +3197,20 @@
       <c r="AC58" s="3"/>
     </row>
     <row r="59" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="36" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="37"/>
-      <c r="G59" s="29" t="s">
+      <c r="F59" s="40"/>
+      <c r="G59" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -3212,20 +3232,20 @@
       <c r="AC59" s="3"/>
     </row>
     <row r="60" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="36" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F60" s="37"/>
-      <c r="G60" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -3247,22 +3267,22 @@
       <c r="AC60" s="3"/>
     </row>
     <row r="61" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="36" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F61" s="37"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="29" t="s">
+      <c r="F61" s="40"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="29" t="s">
+      <c r="I61" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="29"/>
+      <c r="J61" s="15"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -3284,22 +3304,24 @@
       <c r="AC61" s="3"/>
     </row>
     <row r="62" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="36" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="37"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I62" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J62" s="29"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -3321,26 +3343,26 @@
       <c r="AC62" s="3"/>
     </row>
     <row r="63" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="36" t="s">
+      <c r="D63" s="38"/>
+      <c r="E63" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="37"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29" t="s">
+      <c r="F63" s="40"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="I63" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J63" s="29"/>
+      <c r="J63" s="15"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -3362,22 +3384,22 @@
       <c r="AC63" s="3"/>
     </row>
     <row r="64" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="36" t="s">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="37"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29" t="s">
+      <c r="F64" s="40"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J64" s="29"/>
+      <c r="J64" s="15"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -3399,20 +3421,20 @@
       <c r="AC64" s="3"/>
     </row>
     <row r="65" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="36" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F65" s="37"/>
-      <c r="G65" s="29" t="s">
+      <c r="F65" s="40"/>
+      <c r="G65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -3434,20 +3456,20 @@
       <c r="AC65" s="3"/>
     </row>
     <row r="66" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="36" t="s">
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F66" s="37"/>
-      <c r="G66" s="29" t="s">
+      <c r="F66" s="40"/>
+      <c r="G66" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -3469,20 +3491,20 @@
       <c r="AC66" s="3"/>
     </row>
     <row r="67" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="36" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="37"/>
-      <c r="G67" s="29" t="s">
+      <c r="F67" s="40"/>
+      <c r="G67" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -3504,20 +3526,20 @@
       <c r="AC67" s="3"/>
     </row>
     <row r="68" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="36" t="s">
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F68" s="37"/>
-      <c r="G68" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -3539,22 +3561,22 @@
       <c r="AC68" s="3"/>
     </row>
     <row r="69" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="36" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F69" s="37"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="29" t="s">
+      <c r="F69" s="40"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I69" s="29" t="s">
+      <c r="I69" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J69" s="29"/>
+      <c r="J69" s="15"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -3576,22 +3598,22 @@
       <c r="AC69" s="3"/>
     </row>
     <row r="70" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="36" t="s">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="37"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I70" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J70" s="29"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" s="15"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -3613,26 +3635,26 @@
       <c r="AC70" s="3"/>
     </row>
     <row r="71" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="37"/>
+      <c r="C71" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="36" t="s">
+      <c r="D71" s="38"/>
+      <c r="E71" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F71" s="37"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29" t="s">
+      <c r="F71" s="40"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I71" s="29" t="s">
+      <c r="I71" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J71" s="29"/>
+      <c r="J71" s="15"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -3654,22 +3676,22 @@
       <c r="AC71" s="3"/>
     </row>
     <row r="72" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="36" t="s">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F72" s="37"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29" t="s">
+      <c r="F72" s="40"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I72" s="29" t="s">
+      <c r="I72" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J72" s="29"/>
+      <c r="J72" s="15"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -3691,20 +3713,20 @@
       <c r="AC72" s="3"/>
     </row>
     <row r="73" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="36" t="s">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -3726,20 +3748,20 @@
       <c r="AC73" s="3"/>
     </row>
     <row r="74" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="36" t="s">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="37"/>
-      <c r="G74" s="29" t="s">
+      <c r="F74" s="40"/>
+      <c r="G74" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -3761,20 +3783,20 @@
       <c r="AC74" s="3"/>
     </row>
     <row r="75" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="36" t="s">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F75" s="37"/>
-      <c r="G75" s="29" t="s">
+      <c r="F75" s="40"/>
+      <c r="G75" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -3796,20 +3818,20 @@
       <c r="AC75" s="3"/>
     </row>
     <row r="76" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="36" t="s">
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F76" s="37"/>
-      <c r="G76" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -3831,22 +3853,22 @@
       <c r="AC76" s="3"/>
     </row>
     <row r="77" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="36" t="s">
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F77" s="37"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="29" t="s">
+      <c r="F77" s="40"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="29" t="s">
+      <c r="I77" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J77" s="29"/>
+      <c r="J77" s="15"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -3868,22 +3890,24 @@
       <c r="AC77" s="3"/>
     </row>
     <row r="78" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="36" t="s">
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F78" s="37"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I78" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="J78" s="29"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -3905,28 +3929,28 @@
       <c r="AC78" s="3"/>
     </row>
     <row r="79" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="36" t="s">
+      <c r="A79" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="38"/>
+      <c r="E79" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="37"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29" t="s">
+      <c r="F79" s="40"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I79" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J79" s="29"/>
+      <c r="I79" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J79" s="15"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -3948,22 +3972,22 @@
       <c r="AC79" s="3"/>
     </row>
     <row r="80" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="37"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I80" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J80" s="29"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="40"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J80" s="15"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -3985,22 +4009,22 @@
       <c r="AC80" s="3"/>
     </row>
     <row r="81" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F81" s="37"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I81" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="J81" s="29"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" s="40"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J81" s="15"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -4022,22 +4046,22 @@
       <c r="AC81" s="3"/>
     </row>
     <row r="82" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" s="37"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I82" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J82" s="29"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="40"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J82" s="15"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -4059,20 +4083,20 @@
       <c r="AC82" s="3"/>
     </row>
     <row r="83" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="29" t="s">
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="40"/>
+      <c r="G83" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -4094,18 +4118,18 @@
       <c r="AC83" s="3"/>
     </row>
     <row r="84" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="40"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -4127,22 +4151,22 @@
       <c r="AC84" s="3"/>
     </row>
     <row r="85" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F85" s="37"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I85" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J85" s="29"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="40"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J85" s="15"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -4164,20 +4188,20 @@
       <c r="AC85" s="3"/>
     </row>
     <row r="86" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="F86" s="37"/>
-      <c r="G86" s="29" t="s">
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F86" s="40"/>
+      <c r="G86" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -4199,18 +4223,18 @@
       <c r="AC86" s="3"/>
     </row>
     <row r="87" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87" s="37"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" s="40"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -4232,22 +4256,22 @@
       <c r="AC87" s="3"/>
     </row>
     <row r="88" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F88" s="37"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I88" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="J88" s="29"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" s="40"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J88" s="15"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -4269,20 +4293,20 @@
       <c r="AC88" s="3"/>
     </row>
     <row r="89" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="29" t="s">
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" s="40"/>
+      <c r="G89" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -4304,18 +4328,18 @@
       <c r="AC89" s="3"/>
     </row>
     <row r="90" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F90" s="37"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="40"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -4337,22 +4361,22 @@
       <c r="AC90" s="3"/>
     </row>
     <row r="91" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F91" s="37"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="I91" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="J91" s="29"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" s="40"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J91" s="15"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -4374,20 +4398,20 @@
       <c r="AC91" s="3"/>
     </row>
     <row r="92" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" s="37"/>
-      <c r="G92" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" s="40"/>
+      <c r="G92" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -4409,18 +4433,18 @@
       <c r="AC92" s="3"/>
     </row>
     <row r="93" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="F93" s="37"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93" s="40"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -4442,22 +4466,22 @@
       <c r="AC93" s="3"/>
     </row>
     <row r="94" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="F94" s="37"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I94" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="J94" s="29" t="s">
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J94" s="19" t="s">
         <v>7</v>
       </c>
       <c r="K94" s="3"/>
@@ -4481,26 +4505,26 @@
       <c r="AC94" s="3"/>
     </row>
     <row r="95" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="36" t="s">
+      <c r="A95" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="37"/>
+      <c r="C95" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="28"/>
+      <c r="E95" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F95" s="37"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29" t="s">
+      <c r="F95" s="40"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I95" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J95" s="29"/>
+      <c r="I95" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J95" s="15"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -4522,22 +4546,22 @@
       <c r="AC95" s="3"/>
     </row>
     <row r="96" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F96" s="37"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I96" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J96" s="29"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F96" s="40"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J96" s="15"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -4559,22 +4583,22 @@
       <c r="AC96" s="3"/>
     </row>
     <row r="97" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F97" s="37"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="I97" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="J97" s="29" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F97" s="40"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J97" s="19" t="s">
         <v>7</v>
       </c>
       <c r="K97" s="3"/>
@@ -4598,24 +4622,24 @@
       <c r="AC97" s="3"/>
     </row>
     <row r="98" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98" s="27"/>
-      <c r="E98" s="36" t="s">
+      <c r="A98" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="37"/>
+      <c r="C98" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="28"/>
+      <c r="E98" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F98" s="37"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29" t="s">
+      <c r="F98" s="40"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -4637,20 +4661,20 @@
       <c r="AC98" s="3"/>
     </row>
     <row r="99" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F99" s="37"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="40"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -4672,20 +4696,20 @@
       <c r="AC99" s="3"/>
     </row>
     <row r="100" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F100" s="37"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29" t="s">
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" s="40"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I100" s="15"/>
+      <c r="J100" s="19" t="s">
         <v>7</v>
       </c>
       <c r="K100" s="3"/>
@@ -4709,24 +4733,24 @@
       <c r="AC100" s="3"/>
     </row>
     <row r="101" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D101" s="27"/>
-      <c r="E101" s="36" t="s">
+      <c r="A101" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="37"/>
+      <c r="C101" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="28"/>
+      <c r="E101" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F101" s="37"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29" t="s">
+      <c r="F101" s="40"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -4748,20 +4772,20 @@
       <c r="AC101" s="3"/>
     </row>
     <row r="102" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F102" s="37"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F102" s="40"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -4783,22 +4807,22 @@
       <c r="AC102" s="3"/>
     </row>
     <row r="103" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="I103" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="J103" s="29" t="s">
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F103" s="40"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J103" s="19" t="s">
         <v>7</v>
       </c>
       <c r="K103" s="3"/>
@@ -9242,7 +9266,6 @@
     <mergeCell ref="E97:F97"/>
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E90:F90"/>
     <mergeCell ref="E91:F91"/>
     <mergeCell ref="E92:F92"/>
     <mergeCell ref="E93:F93"/>
@@ -9252,8 +9275,6 @@
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="E84:F84"/>
@@ -9262,9 +9283,7 @@
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E90:F90"/>
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="E65:F65"/>
@@ -9272,26 +9291,35 @@
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="D71:D78"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
@@ -9302,15 +9330,11 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="D71:D78"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="D30:D38"/>
     <mergeCell ref="D39:D46"/>
@@ -9356,6 +9380,12 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="D16:D22"/>
@@ -9370,12 +9400,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
